--- a/inetpub/wwwroot/ServicesMvc/App_Data/FileUpload/Temp/Testfile.xlsx
+++ b/inetpub/wwwroot/ServicesMvc/App_Data/FileUpload/Temp/Testfile.xlsx
@@ -16,66 +16,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
-  <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
-    <t>Spalte2</t>
-  </si>
-  <si>
-    <t>Spalte3</t>
-  </si>
-  <si>
-    <t>Spalte4</t>
-  </si>
-  <si>
-    <t>öö</t>
-  </si>
-  <si>
-    <t>ää</t>
-  </si>
-  <si>
-    <t>üü</t>
-  </si>
-  <si>
-    <t>ßß</t>
-  </si>
-  <si>
-    <t>aq</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>fr</t>
-  </si>
-  <si>
-    <t>"aa"</t>
-  </si>
-  <si>
-    <t>bb'</t>
-  </si>
-  <si>
-    <t>"c'c^</t>
-  </si>
-  <si>
-    <t>"d1;d2;d3"</t>
-  </si>
-  <si>
-    <t>;de;sd;fs</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>dd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>GebDat</t>
+  </si>
+  <si>
+    <t>Strasse+HausNr</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>KFZtyp</t>
+  </si>
+  <si>
+    <t>Kennz</t>
+  </si>
+  <si>
+    <t>Heinrich</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Matthiessen</t>
+  </si>
+  <si>
+    <t>Meier</t>
+  </si>
+  <si>
+    <t>Ewaldowski</t>
+  </si>
+  <si>
+    <t>Winterkorn</t>
+  </si>
+  <si>
+    <t>Lutz</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Tessa</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Am Weg 4</t>
+  </si>
+  <si>
+    <t>Wiesenstraße 8a</t>
+  </si>
+  <si>
+    <t>Hamburger Straße 42</t>
+  </si>
+  <si>
+    <t>Winterfeld 4</t>
+  </si>
+  <si>
+    <t>Luisenweg 24a-b</t>
+  </si>
+  <si>
+    <t>Kornstraße 8</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>Lutzstadt</t>
+  </si>
+  <si>
+    <t>Dormagen</t>
+  </si>
+  <si>
+    <t>Lübeck</t>
+  </si>
+  <si>
+    <t>Delingsdorf</t>
+  </si>
+  <si>
+    <t>Teststadt</t>
+  </si>
+  <si>
+    <t>PKW</t>
+  </si>
+  <si>
+    <t>Anhänger</t>
+  </si>
+  <si>
+    <t>LKW</t>
+  </si>
+  <si>
+    <t>OD-MA 2344</t>
+  </si>
+  <si>
+    <t>DD-GS 232</t>
+  </si>
+  <si>
+    <t>CO-Q 42</t>
+  </si>
+  <si>
+    <t>OD-QQ 823</t>
   </si>
 </sst>
 </file>
@@ -121,8 +178,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -417,172 +474,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>3</v>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>41671</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>20354</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41672</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>92993</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41673</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>47782</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>22</v>
-      </c>
-      <c r="C2">
-        <v>33</v>
-      </c>
-      <c r="D2">
-        <v>44</v>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41674</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>23371</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41675</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>22941</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f>A6+B6</f>
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <f>C6+1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41676</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
